--- a/biology/Médecine/Hallux_varus/Hallux_varus.xlsx
+++ b/biology/Médecine/Hallux_varus/Hallux_varus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hallux varus est une déformation de l'articulation du gros orteil.
 Cette déformation inhabituelle peut être congénitale ou acquise à la suite d'un traumatisme. Prise tôt, une réduction manuelle est possible, par le port de semelles par exemple. Sinon, selon l'avancement, le degré de déformation et le niveau d'arthrose, on pourra déplacer le tendon ou faire une arthrodèse.
